--- a/hebrewOutputs/hebrewComparison_14.xlsx
+++ b/hebrewOutputs/hebrewComparison_14.xlsx
@@ -64,102 +64,102 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>מתי אא התחיל אא להקיא ולהרגיש את כל ה...</t>
+  </si>
+  <si>
+    <t>לפני אא כבר אתמול.</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>אף פעם לא היה לו משהו כזה דומה נכון?</t>
+  </si>
+  <si>
+    <t>אא לא לא ככה.</t>
+  </si>
+  <si>
+    <t>לא היה לו בעבר משהו כזה.</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא ככה לא. </t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>אבל נראה לי הוא מרגיש טוב עכשיו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז אא את איתו כל הדרך כאילו, את תמיד את צמודה אליו את אא היחס כאילו ביניכם הוא טוב? </t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מה זה השאלה הזאת? </t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>כלום. אני שואלת. רק להבין את ה... אם את איתו כל הזמן,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> את עובדת? </t>
+  </si>
+  <si>
+    <t>[?]l/s</t>
+  </si>
+  <si>
+    <t>כן בטח שאני עובדת.</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>אז אא את משאירה אותו...</t>
+  </si>
+  <si>
+    <t>מה מה את מדברת? את חוקרת אותי כאילו אני מזניחה את הילד שלי?</t>
+  </si>
+  <si>
+    <t>?reassure</t>
+  </si>
+  <si>
+    <t>לא לא. מה פתאום?!</t>
+  </si>
+  <si>
+    <t>אז מה השאלה הזאתי מה זה היחס אמא עם הבן שלך?</t>
+  </si>
+  <si>
+    <t>אני שואלת אם את משאירה אותו כאילו לבד הרבה זמן או ש...</t>
+  </si>
+  <si>
+    <t>למה? למה את שואלת כזאת שאלה? מה קרה? קרה משהו?</t>
+  </si>
+  <si>
     <t>concern</t>
   </si>
   <si>
-    <t>מתי אא התחיל אא להקיא ולהרגיש את כל ה...</t>
-  </si>
-  <si>
-    <t>לפני אא כבר אתמול.</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>אף פעם לא היה לו משהו כזה דומה נכון?</t>
-  </si>
-  <si>
-    <t>אא לא לא ככה.</t>
-  </si>
-  <si>
-    <t>לא היה לו בעבר משהו כזה.</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא ככה לא. </t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>אבל נראה לי הוא מרגיש טוב עכשיו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז אא את איתו כל הדרך כאילו, את תמיד את צמודה אליו את אא היחס כאילו ביניכם הוא טוב? </t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>כן</t>
+    <t>לא לא. המצב שלו יציב, המצב שלו יציב. לא לפחד.</t>
+  </si>
+  <si>
+    <t>אוקיי.</t>
   </si>
   <si>
     <t>bc</t>
   </si>
   <si>
-    <t xml:space="preserve">מה זה השאלה הזאת? </t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>כלום. אני שואלת. רק להבין את ה... אם את איתו כל הזמן,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> את עובדת? </t>
-  </si>
-  <si>
-    <t>[?]l/s</t>
-  </si>
-  <si>
-    <t>כן בטח שאני עובדת.</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>אז אא את משאירה אותו...</t>
-  </si>
-  <si>
-    <t>מה מה את מדברת? את חוקרת אותי כאילו אני מזניחה את הילד שלי?</t>
-  </si>
-  <si>
-    <t>לא לא. מה פתאום?!</t>
-  </si>
-  <si>
-    <t>אז מה השאלה הזאתי מה זה היחס אמא עם הבן שלך?</t>
-  </si>
-  <si>
-    <t>?reassure</t>
-  </si>
-  <si>
-    <t>אני שואלת אם את משאירה אותו כאילו לבד הרבה זמן או ש...</t>
-  </si>
-  <si>
-    <t>למה? למה את שואלת כזאת שאלה? מה קרה? קרה משהו?</t>
-  </si>
-  <si>
-    <t>לא לא. המצב שלו יציב, המצב שלו יציב. לא לפחד.</t>
-  </si>
-  <si>
-    <t>אוקיי.</t>
-  </si>
-  <si>
     <t xml:space="preserve">לא לפחד. להריגע. </t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>כן אני יודעת. אני יודעת.</t>
   </si>
   <si>
+    <t>?opinion</t>
+  </si>
+  <si>
     <t xml:space="preserve">אז על מה את מדברת איתי עכשיו? </t>
   </si>
   <si>
@@ -391,9 +394,6 @@
     <t>מה את יודעת על סכרת נעורים?</t>
   </si>
   <si>
-    <t>?opinion</t>
-  </si>
-  <si>
     <t>זה ילדים שמזריקים לעצמם.</t>
   </si>
   <si>
@@ -442,10 +442,10 @@
     <t>c-l/s-p/s</t>
   </si>
   <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
     <t xml:space="preserve">והוא ייקח את התרופה שלו. </t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
   </si>
   <si>
     <t>את יכולה לעמוד איתו עד הסוף.</t>
@@ -920,12 +920,12 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -936,18 +936,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -991,43 +991,43 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1079,54 +1079,54 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1170,10 +1170,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1181,10 +1181,10 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1192,10 +1192,10 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1239,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1247,10 +1247,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1269,10 +1269,10 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -1294,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1302,10 +1302,10 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1316,7 +1316,7 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1357,10 +1357,10 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1368,10 +1368,10 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1379,10 +1379,10 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1412,10 +1412,10 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1434,10 +1434,10 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
         <v>80</v>
@@ -1492,18 +1492,18 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
         <v>47</v>
       </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -1533,10 +1533,10 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1544,10 +1544,10 @@
         <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1569,7 +1569,7 @@
         <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1599,10 +1599,10 @@
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1610,10 +1610,10 @@
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1621,26 +1621,26 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -1662,32 +1662,32 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -1695,29 +1695,29 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
@@ -1728,18 +1728,18 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
@@ -1750,76 +1750,76 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="B86" t="s">
-        <v>31</v>
-      </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
@@ -1838,18 +1838,18 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -1860,18 +1860,18 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
@@ -1882,21 +1882,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -1904,18 +1904,18 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -1948,32 +1948,32 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
         <v>47</v>
       </c>
-      <c r="B102" t="s">
-        <v>31</v>
-      </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2028,10 +2028,10 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2075,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2086,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2105,10 +2105,10 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -2163,18 +2163,18 @@
         <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
         <v>142</v>
       </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2185,7 +2185,7 @@
         <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2215,10 +2215,10 @@
         <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2240,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2248,10 +2248,10 @@
         <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -2303,7 +2303,7 @@
         <v>156</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2325,10 +2325,10 @@
         <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2339,7 +2339,7 @@
         <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2347,10 +2347,10 @@
         <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -2372,7 +2372,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>164</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
